--- a/SevenRMartSuperMarket/src/main/java/Resources/TestData.xlsx
+++ b/SevenRMartSuperMarket/src/main/java/Resources/TestData.xlsx
@@ -3,15 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D68FCCF2-39F8-41FA-87BE-14ED201AAA81}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3F5F1F4-14B9-4FB5-B835-7B32B8F18085}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SimpleFormDemo" sheetId="1" r:id="rId1"/>
-    <sheet name="CheckBoxDemo" sheetId="2" r:id="rId2"/>
-    <sheet name="RadioButtonDemo" sheetId="3" r:id="rId3"/>
-    <sheet name="SelectInputDemo" sheetId="4" r:id="rId4"/>
+    <sheet name="login" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,31 +20,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>Success - Check box is checked</t>
-  </si>
-  <si>
-    <t>'Female'</t>
-  </si>
-  <si>
-    <t>Red</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Dashboard | 7rmart supermarket</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-user</t>
+  </si>
+  <si>
+    <t>Url List Page</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-user?page_ad=1</t>
+  </si>
+  <si>
+    <t>Juice</t>
+  </si>
+  <si>
+    <t>AppleJuice</t>
+  </si>
+  <si>
+    <t>enterTitle</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Url pushnotification</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-notifications</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/Notification/add</t>
+  </si>
+  <si>
+    <t>Url after clicking send button</t>
+  </si>
+  <si>
+    <t>username1</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>7mart12</t>
+  </si>
+  <si>
+    <t>username2</t>
+  </si>
+  <si>
+    <t>password2</t>
+  </si>
+  <si>
+    <t>7mart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,8 +135,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,84 +420,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1CC5F2-83E8-401B-98C5-BE58F0F48A4C}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F67248-4A99-4901-80E4-27EB53BD6AE8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95FB72E-18B0-45C2-985A-BED668DBA85A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1CC5F2-83E8-401B-98C5-BE58F0F48A4C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SevenRMartSuperMarket/src/main/java/Resources/TestData.xlsx
+++ b/SevenRMartSuperMarket/src/main/java/Resources/TestData.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3F5F1F4-14B9-4FB5-B835-7B32B8F18085}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5F6CD3DE-3161-4109-9246-1D4AF71DA27B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="4" r:id="rId1"/>
+    <sheet name="menu" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Title</t>
   </si>
@@ -89,13 +90,67 @@
   </si>
   <si>
     <t>7mart</t>
+  </si>
+  <si>
+    <t>Manage Users</t>
+  </si>
+  <si>
+    <t>Push Notifications</t>
+  </si>
+  <si>
+    <t>Manage Location</t>
+  </si>
+  <si>
+    <t>location name</t>
+  </si>
+  <si>
+    <t>Trivandrum</t>
+  </si>
+  <si>
+    <t>delivery charge</t>
+  </si>
+  <si>
+    <t>Rs.200</t>
+  </si>
+  <si>
+    <t>Manage Slider</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Mobile Slider</t>
+  </si>
+  <si>
+    <t>Manage Payment Methods</t>
+  </si>
+  <si>
+    <t>title in payment</t>
+  </si>
+  <si>
+    <t>UPI Payment</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-slider</t>
+  </si>
+  <si>
+    <t>linknew</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>location namenew</t>
+  </si>
+  <si>
+    <t>UK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +167,11 @@
     <font>
       <sz val="12"/>
       <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -135,12 +195,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1CC5F2-83E8-401B-98C5-BE58F0F48A4C}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,6 +598,103 @@
         <v>19</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0061A0-A7B5-48A5-AA52-384DD6503E97}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SevenRMartSuperMarket/src/main/java/Resources/TestData.xlsx
+++ b/SevenRMartSuperMarket/src/main/java/Resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5F6CD3DE-3161-4109-9246-1D4AF71DA27B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A0FB030B-8F4C-4D59-B03A-A8A2B495C846}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Title</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>UK</t>
+  </si>
+  <si>
+    <t>Manage Delivery Boy</t>
+  </si>
+  <si>
+    <t>Manage Product</t>
   </si>
 </sst>
 </file>
@@ -484,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1CC5F2-83E8-401B-98C5-BE58F0F48A4C}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,9 +660,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0061A0-A7B5-48A5-AA52-384DD6503E97}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -695,6 +701,16 @@
         <v>33</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SevenRMartSuperMarket/src/main/java/Resources/TestData.xlsx
+++ b/SevenRMartSuperMarket/src/main/java/Resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A0FB030B-8F4C-4D59-B03A-A8A2B495C846}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E63B306B-6C97-4609-B9B5-818BA742C9F0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Title</t>
   </si>
@@ -150,6 +150,21 @@
   </si>
   <si>
     <t>Manage Product</t>
+  </si>
+  <si>
+    <t>Admin Users</t>
+  </si>
+  <si>
+    <t>admin username</t>
+  </si>
+  <si>
+    <t>jaya</t>
+  </si>
+  <si>
+    <t>product filter</t>
+  </si>
+  <si>
+    <t>Red Meat</t>
   </si>
 </sst>
 </file>
@@ -488,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1CC5F2-83E8-401B-98C5-BE58F0F48A4C}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +667,22 @@
         <v>40</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -660,10 +691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0061A0-A7B5-48A5-AA52-384DD6503E97}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,6 +742,11 @@
         <v>42</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
